--- a/tsp_bb.xlsx
+++ b/tsp_bb.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>AVG [ns]</t>
   </si>
   <si>
     <t>4.23 s</t>
   </si>
+  <si>
+    <t>151.13 s</t>
+  </si>
+  <si>
+    <t>0.71 s</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -61,7 +70,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -77,9 +86,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -115,12 +124,20 @@
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> rozbieżności wyników pomiaru czasu [ns] w 50 pomiarach dla pliku gr17_d - 17 miast</a:t>
+              <a:t> rozbieżności wyników pomiaru czasu [ns] w 50 pomiarach dla pliku gr17_d, 17 miast, STSP</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21831290427144445"/>
+          <c:y val="1.7871218871069006E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -146,7 +163,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -343,7 +360,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-752A-4FAB-B30F-2E45E125B9F0}"/>
             </c:ext>
@@ -357,11 +374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388210112"/>
-        <c:axId val="397931112"/>
+        <c:axId val="-143247136"/>
+        <c:axId val="-143246592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388210112"/>
+        <c:axId val="-143247136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -417,17 +434,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397931112"/>
+        <c:crossAx val="-143246592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397931112"/>
+        <c:axId val="-143246592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4350000000"/>
@@ -483,10 +500,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388210112"/>
+        <c:crossAx val="-143247136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10000000"/>
@@ -525,7 +542,1385 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykres</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> rozbieżności wyników pomiaru czasu [ns] w 50 pomiarach dla pliku fri26_d, 26 miast, STSP</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$1:$X$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>171993000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173382000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>173379000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170754000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152202000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146185000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146501000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150980000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151110000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146489000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>145816000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150957000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>156767000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>168944000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>156513000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>148902000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148715000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159283000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>153435000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>154071000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>151981000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>166096000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>153283000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>223615000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>142453000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>141657000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>142323000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>141641000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>143256000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>143130000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>145178000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>145851000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>139923000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>141362000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>140900000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>141384000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144420000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>143950000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>142369000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>142063000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>146897000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>149283000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>144814000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>143881000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>143678000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>147357000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>153056000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>142604000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>141728000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>146664000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-752A-4FAB-B30F-2E45E125B9F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-141353600"/>
+        <c:axId val="-141354688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-141353600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-141354688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-141354688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="130000000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-141353600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykres</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> rozbieżności wyników pomiaru czasu [ns] w 50 pomiarach dla pliku br17_d, 17 miast, ATSP</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$1:$AA$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>706353000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700926000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>705097000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>701336000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>742306000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>744813000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>720108000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>701728000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>700533000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>698054000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>702089000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>718650000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>716476000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>699886000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>698937000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>699845000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>706983000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>696902000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>730182000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>719622000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>696876000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>700527000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>699694000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>697257000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>696657000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>696835000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>699737000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698985000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>699313000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>700619000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>698803000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>699544000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>715207000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>740392000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>702468000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>697588000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>696164000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>694383000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>698780000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>699269000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>695742000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>697647000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>697302000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>696348000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>697011000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>701939000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>697507000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>747530000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>699346000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>719382000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-752A-4FAB-B30F-2E45E125B9F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-456683808"/>
+        <c:axId val="-456679456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-456683808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-456679456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-456679456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="750000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-456683808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykres</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> rozbieżności wyników pomiaru czasu [ns] w 50 pomiarach dla pliku fftv15_d, 15 miast, ATSP</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$73:$X$122</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>130560</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138880</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136959</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128320</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>148160</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>136960</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>125759</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>124480</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>124800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>125759</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>126400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>125440</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>124799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>126720</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>124480</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>126399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>125760</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>124800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>125439</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>125440</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>125120</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>126079</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>125120</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>125759</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144320</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>166399</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>146880</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>251839</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>151679</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>187840</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>142079</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>181760</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>169919</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>443519</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>150079</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>128640</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>156799</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>127040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-752A-4FAB-B30F-2E45E125B9F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-121337344"/>
+        <c:axId val="-121336800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-121337344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-121336800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-121336800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450000"/>
+          <c:min val="100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-121337344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -576,7 +1971,1675 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1097,22 +4160,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>79561</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>106455</xdr:rowOff>
+      <xdr:colOff>45944</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5AD005-FF14-440E-8052-F70366419C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A5AD005-FF14-440E-8052-F70366419C86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1130,13 +4193,127 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>536762</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>162486</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A5AD005-FF14-440E-8052-F70366419C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>536762</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>16810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A5AD005-FF14-440E-8052-F70366419C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>536761</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>61633</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A5AD005-FF14-440E-8052-F70366419C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1174,7 +4351,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1209,23 +4386,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1261,26 +4421,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1454,276 +4597,1464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z75" sqref="Z75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="29" max="29" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>4294940000</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>2085</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="X1" s="1">
+        <v>171993000000</v>
+      </c>
+      <c r="Y1">
+        <v>937</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>706353000</v>
+      </c>
+      <c r="AB1">
+        <v>58</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4322650000</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
+        <v>2085</v>
+      </c>
+      <c r="C2" s="2">
         <f>AVERAGE(A1:A50)</f>
         <v>4227541000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="X2" s="1">
+        <v>173382000000</v>
+      </c>
+      <c r="Y2">
+        <v>937</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>AVERAGE(X1:X50)</f>
+        <v>151263500000</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>700926000</v>
+      </c>
+      <c r="AB2">
+        <v>58</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>AVERAGE(AA1:AA50)</f>
+        <v>705793560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4344660000</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2085</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="X3" s="1">
+        <v>173379000000</v>
+      </c>
+      <c r="Y3">
+        <v>937</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>705097000</v>
+      </c>
+      <c r="AB3">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4215070000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2085</v>
+      </c>
+      <c r="X4" s="1">
+        <v>170754000000</v>
+      </c>
+      <c r="Y4">
+        <v>937</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>701336000</v>
+      </c>
+      <c r="AB4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4208740000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2085</v>
+      </c>
+      <c r="X5" s="1">
+        <v>152202000000</v>
+      </c>
+      <c r="Y5">
+        <v>937</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>742306000</v>
+      </c>
+      <c r="AB5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4211020000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2085</v>
+      </c>
+      <c r="X6" s="1">
+        <v>146185000000</v>
+      </c>
+      <c r="Y6">
+        <v>937</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>744813000</v>
+      </c>
+      <c r="AB6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4308540000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2085</v>
+      </c>
+      <c r="X7" s="1">
+        <v>146501000000</v>
+      </c>
+      <c r="Y7">
+        <v>937</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>720108000</v>
+      </c>
+      <c r="AB7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4216950000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2085</v>
+      </c>
+      <c r="X8" s="1">
+        <v>150980000000</v>
+      </c>
+      <c r="Y8">
+        <v>937</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>701728000</v>
+      </c>
+      <c r="AB8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4221410000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2085</v>
+      </c>
+      <c r="X9" s="1">
+        <v>151110000000</v>
+      </c>
+      <c r="Y9">
+        <v>937</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>700533000</v>
+      </c>
+      <c r="AB9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4234540000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2085</v>
+      </c>
+      <c r="X10" s="1">
+        <v>146489000000</v>
+      </c>
+      <c r="Y10">
+        <v>937</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>698054000</v>
+      </c>
+      <c r="AB10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4345470000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2085</v>
+      </c>
+      <c r="X11" s="1">
+        <v>145816000000</v>
+      </c>
+      <c r="Y11">
+        <v>937</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>702089000</v>
+      </c>
+      <c r="AB11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4283190000</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2085</v>
+      </c>
+      <c r="X12" s="1">
+        <v>150957000000</v>
+      </c>
+      <c r="Y12">
+        <v>937</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>718650000</v>
+      </c>
+      <c r="AB12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4231010000</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2085</v>
+      </c>
+      <c r="X13" s="1">
+        <v>156767000000</v>
+      </c>
+      <c r="Y13">
+        <v>937</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>716476000</v>
+      </c>
+      <c r="AB13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4215470000</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2085</v>
+      </c>
+      <c r="X14" s="1">
+        <v>168944000000</v>
+      </c>
+      <c r="Y14">
+        <v>937</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>699886000</v>
+      </c>
+      <c r="AB14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4219630000</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2085</v>
+      </c>
+      <c r="X15" s="1">
+        <v>156513000000</v>
+      </c>
+      <c r="Y15">
+        <v>937</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>698937000</v>
+      </c>
+      <c r="AB15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4219140000</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2085</v>
+      </c>
+      <c r="X16" s="1">
+        <v>148902000000</v>
+      </c>
+      <c r="Y16">
+        <v>937</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>699845000</v>
+      </c>
+      <c r="AB16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4213460000</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2085</v>
+      </c>
+      <c r="X17" s="1">
+        <v>148715000000</v>
+      </c>
+      <c r="Y17">
+        <v>937</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>706983000</v>
+      </c>
+      <c r="AB17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4213820000</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2085</v>
+      </c>
+      <c r="X18" s="1">
+        <v>159283000000</v>
+      </c>
+      <c r="Y18">
+        <v>937</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>696902000</v>
+      </c>
+      <c r="AB18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4212290000</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2085</v>
+      </c>
+      <c r="X19" s="1">
+        <v>153435000000</v>
+      </c>
+      <c r="Y19">
+        <v>937</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>730182000</v>
+      </c>
+      <c r="AB19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4209570000</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2085</v>
+      </c>
+      <c r="X20" s="1">
+        <v>154071000000</v>
+      </c>
+      <c r="Y20">
+        <v>937</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>719622000</v>
+      </c>
+      <c r="AB20">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4218410000</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2085</v>
+      </c>
+      <c r="X21" s="1">
+        <v>151981000000</v>
+      </c>
+      <c r="Y21">
+        <v>937</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>696876000</v>
+      </c>
+      <c r="AB21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4210520000</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2085</v>
+      </c>
+      <c r="X22" s="1">
+        <v>166096000000</v>
+      </c>
+      <c r="Y22">
+        <v>937</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>700527000</v>
+      </c>
+      <c r="AB22">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4215150000</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2085</v>
+      </c>
+      <c r="X23" s="1">
+        <v>153283000000</v>
+      </c>
+      <c r="Y23">
+        <v>937</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>699694000</v>
+      </c>
+      <c r="AB23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>4221560000</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2085</v>
+      </c>
+      <c r="X24" s="1">
+        <v>223615000000</v>
+      </c>
+      <c r="Y24">
+        <v>937</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>697257000</v>
+      </c>
+      <c r="AB24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>4217600000</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2085</v>
+      </c>
+      <c r="X25" s="1">
+        <v>142453000000</v>
+      </c>
+      <c r="Y25">
+        <v>937</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>696657000</v>
+      </c>
+      <c r="AB25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4213930000</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2085</v>
+      </c>
+      <c r="X26" s="1">
+        <v>141657000000</v>
+      </c>
+      <c r="Y26">
+        <v>937</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>696835000</v>
+      </c>
+      <c r="AB26">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4210620000</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2085</v>
+      </c>
+      <c r="X27" s="1">
+        <v>142323000000</v>
+      </c>
+      <c r="Y27">
+        <v>937</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>699737000</v>
+      </c>
+      <c r="AB27">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>4209100000</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2085</v>
+      </c>
+      <c r="X28" s="1">
+        <v>141641000000</v>
+      </c>
+      <c r="Y28">
+        <v>937</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>698985000</v>
+      </c>
+      <c r="AB28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>4213170000</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2085</v>
+      </c>
+      <c r="X29" s="1">
+        <v>143256000000</v>
+      </c>
+      <c r="Y29">
+        <v>937</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>699313000</v>
+      </c>
+      <c r="AB29">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>4214110000</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2085</v>
+      </c>
+      <c r="X30" s="1">
+        <v>143130000000</v>
+      </c>
+      <c r="Y30">
+        <v>937</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>700619000</v>
+      </c>
+      <c r="AB30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>4214350000</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2085</v>
+      </c>
+      <c r="X31" s="1">
+        <v>145178000000</v>
+      </c>
+      <c r="Y31">
+        <v>937</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>698803000</v>
+      </c>
+      <c r="AB31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4209310000</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2085</v>
+      </c>
+      <c r="X32" s="1">
+        <v>145851000000</v>
+      </c>
+      <c r="Y32">
+        <v>937</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>699544000</v>
+      </c>
+      <c r="AB32">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4209320000</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2085</v>
+      </c>
+      <c r="X33" s="1">
+        <v>139923000000</v>
+      </c>
+      <c r="Y33">
+        <v>937</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>715207000</v>
+      </c>
+      <c r="AB33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4209030000</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2085</v>
+      </c>
+      <c r="X34" s="1">
+        <v>141362000000</v>
+      </c>
+      <c r="Y34">
+        <v>937</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>740392000</v>
+      </c>
+      <c r="AB34">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4214690000</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2085</v>
+      </c>
+      <c r="X35" s="1">
+        <v>140900000000</v>
+      </c>
+      <c r="Y35">
+        <v>937</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>702468000</v>
+      </c>
+      <c r="AB35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4287470000</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2085</v>
+      </c>
+      <c r="X36" s="1">
+        <v>141384000000</v>
+      </c>
+      <c r="Y36">
+        <v>937</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>697588000</v>
+      </c>
+      <c r="AB36">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4205880000</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2085</v>
+      </c>
+      <c r="X37" s="1">
+        <v>144420000000</v>
+      </c>
+      <c r="Y37">
+        <v>937</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>696164000</v>
+      </c>
+      <c r="AB37">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4210870000</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2085</v>
+      </c>
+      <c r="X38" s="1">
+        <v>143950000000</v>
+      </c>
+      <c r="Y38">
+        <v>937</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>694383000</v>
+      </c>
+      <c r="AB38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>4207250000</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2085</v>
+      </c>
+      <c r="X39" s="1">
+        <v>142369000000</v>
+      </c>
+      <c r="Y39">
+        <v>937</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>698780000</v>
+      </c>
+      <c r="AB39">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>4211030000</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2085</v>
+      </c>
+      <c r="X40" s="1">
+        <v>142063000000</v>
+      </c>
+      <c r="Y40">
+        <v>937</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>699269000</v>
+      </c>
+      <c r="AB40">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>4210950000</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2085</v>
+      </c>
+      <c r="X41" s="1">
+        <v>146897000000</v>
+      </c>
+      <c r="Y41">
+        <v>937</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>695742000</v>
+      </c>
+      <c r="AB41">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>4208740000</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2085</v>
+      </c>
+      <c r="X42" s="1">
+        <v>149283000000</v>
+      </c>
+      <c r="Y42">
+        <v>937</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>697647000</v>
+      </c>
+      <c r="AB42">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>4211200000</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2085</v>
+      </c>
+      <c r="X43" s="1">
+        <v>144814000000</v>
+      </c>
+      <c r="Y43">
+        <v>937</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>697302000</v>
+      </c>
+      <c r="AB43">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4209530000</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2085</v>
+      </c>
+      <c r="X44" s="1">
+        <v>143881000000</v>
+      </c>
+      <c r="Y44">
+        <v>937</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>696348000</v>
+      </c>
+      <c r="AB44">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>4210810000</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2085</v>
+      </c>
+      <c r="X45" s="1">
+        <v>143678000000</v>
+      </c>
+      <c r="Y45">
+        <v>937</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>697011000</v>
+      </c>
+      <c r="AB45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>4210140000</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2085</v>
+      </c>
+      <c r="X46" s="1">
+        <v>147357000000</v>
+      </c>
+      <c r="Y46">
+        <v>937</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>701939000</v>
+      </c>
+      <c r="AB46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>4207750000</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2085</v>
+      </c>
+      <c r="X47" s="1">
+        <v>153056000000</v>
+      </c>
+      <c r="Y47">
+        <v>937</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>697507000</v>
+      </c>
+      <c r="AB47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>4209110000</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>2085</v>
+      </c>
+      <c r="X48" s="1">
+        <v>142604000000</v>
+      </c>
+      <c r="Y48">
+        <v>937</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>747530000</v>
+      </c>
+      <c r="AB48">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4216720000</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>2085</v>
+      </c>
+      <c r="X49" s="1">
+        <v>141728000000</v>
+      </c>
+      <c r="Y49">
+        <v>937</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>699346000</v>
+      </c>
+      <c r="AB49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4217160000</v>
+      </c>
+      <c r="B50">
+        <v>2085</v>
+      </c>
+      <c r="X50" s="1">
+        <v>146664000000</v>
+      </c>
+      <c r="Y50">
+        <v>937</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>719382000</v>
+      </c>
+      <c r="AB50">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X73" s="1">
+        <v>130560</v>
+      </c>
+      <c r="Y73">
+        <v>55</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X74" s="1">
+        <v>128319</v>
+      </c>
+      <c r="Y74">
+        <v>55</v>
+      </c>
+      <c r="Z74" s="2">
+        <f>AVERAGE(X73:X122)</f>
+        <v>144793.12</v>
+      </c>
+    </row>
+    <row r="75" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X75" s="1">
+        <v>137600</v>
+      </c>
+      <c r="Y75">
+        <v>55</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>1.4579299999999999E-4</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X76" s="1">
+        <v>138239</v>
+      </c>
+      <c r="Y76">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X77" s="1">
+        <v>125760</v>
+      </c>
+      <c r="Y77">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X78" s="1">
+        <v>125759</v>
+      </c>
+      <c r="Y78">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X79" s="1">
+        <v>138880</v>
+      </c>
+      <c r="Y79">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X80" s="1">
+        <v>136000</v>
+      </c>
+      <c r="Y80">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X81" s="1">
+        <v>136959</v>
+      </c>
+      <c r="Y81">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X82" s="1">
+        <v>128320</v>
+      </c>
+      <c r="Y82">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X83" s="1">
+        <v>130239</v>
+      </c>
+      <c r="Y83">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X84" s="1">
+        <v>148160</v>
+      </c>
+      <c r="Y84">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X85" s="1">
+        <v>149119</v>
+      </c>
+      <c r="Y85">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X86" s="1">
+        <v>136960</v>
+      </c>
+      <c r="Y86">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X87" s="1">
+        <v>125759</v>
+      </c>
+      <c r="Y87">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X88" s="1">
+        <v>124480</v>
+      </c>
+      <c r="Y88">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X89" s="1">
+        <v>145599</v>
+      </c>
+      <c r="Y89">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X90" s="1">
+        <v>125120</v>
+      </c>
+      <c r="Y90">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X91" s="1">
+        <v>124800</v>
+      </c>
+      <c r="Y91">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X92" s="1">
+        <v>125759</v>
+      </c>
+      <c r="Y92">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X93" s="1">
+        <v>126400</v>
+      </c>
+      <c r="Y93">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X94" s="1">
+        <v>125119</v>
+      </c>
+      <c r="Y94">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X95" s="1">
+        <v>125440</v>
+      </c>
+      <c r="Y95">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X96" s="1">
+        <v>124799</v>
+      </c>
+      <c r="Y96">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X97" s="1">
+        <v>126720</v>
+      </c>
+      <c r="Y97">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X98" s="1">
+        <v>124480</v>
+      </c>
+      <c r="Y98">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X99" s="1">
+        <v>126399</v>
+      </c>
+      <c r="Y99">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X100" s="1">
+        <v>125760</v>
+      </c>
+      <c r="Y100">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X101" s="1">
+        <v>145599</v>
+      </c>
+      <c r="Y101">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X102" s="1">
+        <v>124800</v>
+      </c>
+      <c r="Y102">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X103" s="1">
+        <v>125439</v>
+      </c>
+      <c r="Y103">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X104" s="1">
+        <v>125440</v>
+      </c>
+      <c r="Y104">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X105" s="1">
+        <v>125120</v>
+      </c>
+      <c r="Y105">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X106" s="1">
+        <v>126079</v>
+      </c>
+      <c r="Y106">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X107" s="1">
+        <v>125120</v>
+      </c>
+      <c r="Y107">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X108" s="1">
+        <v>125759</v>
+      </c>
+      <c r="Y108">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X109" s="1">
+        <v>144320</v>
+      </c>
+      <c r="Y109">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X110" s="1">
+        <v>166399</v>
+      </c>
+      <c r="Y110">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X111" s="1">
+        <v>146880</v>
+      </c>
+      <c r="Y111">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X112" s="1">
+        <v>251839</v>
+      </c>
+      <c r="Y112">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X113" s="1">
+        <v>151679</v>
+      </c>
+      <c r="Y113">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X114" s="1">
+        <v>187840</v>
+      </c>
+      <c r="Y114">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X115" s="1">
+        <v>142079</v>
+      </c>
+      <c r="Y115">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X116" s="1">
+        <v>181760</v>
+      </c>
+      <c r="Y116">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X117" s="1">
+        <v>169919</v>
+      </c>
+      <c r="Y117">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X118" s="1">
+        <v>443519</v>
+      </c>
+      <c r="Y118">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X119" s="1">
+        <v>150079</v>
+      </c>
+      <c r="Y119">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X120" s="1">
+        <v>128640</v>
+      </c>
+      <c r="Y120">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X121" s="1">
+        <v>156799</v>
+      </c>
+      <c r="Y121">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X122" s="1">
+        <v>127040</v>
+      </c>
+      <c r="Y122">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
